--- a/doc/Customs.xlsx
+++ b/doc/Customs.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Attach Artist to a Part</t>
   </si>
   <si>
-    <t>A way to indicate if a collectible is unofficial/official (licenses or unlicensed)</t>
-  </si>
-  <si>
     <t>Attach photo to part</t>
   </si>
   <si>
@@ -43,6 +40,27 @@
   </si>
   <si>
     <t>Instead of a manufacturer, add an artist or you can add both</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Need to add features back, such as paint, etc</t>
+  </si>
+  <si>
+    <t>Custom Work that isn't a collectible?</t>
+  </si>
+  <si>
+    <t>How should we handle cases where people did custom work that isn't a collectible? Or they want to show off work they did like paint work on a sculpt?  This can probably be added later but it would be kind of like deviant art, where you can just  upload a photo and comment about something you did</t>
+  </si>
+  <si>
+    <t>Verified Manufacturers, if they are verified then the user who is attached can also approve</t>
+  </si>
+  <si>
+    <t>A way to indicate if a collectible is unofficial/official (licenses or unlicensed) or if a brand is</t>
+  </si>
+  <si>
+    <t>transfer customs to someone else</t>
   </si>
 </sst>
 </file>
@@ -86,10 +104,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -393,55 +414,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="84" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
